--- a/covered storage mass balances/data/240415 mass balances, ijg.xlsx
+++ b/covered storage mass balances/data/240415 mass balances, ijg.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isaiah/Desktop/pro dairy/prodairy/covered storage mass balances/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8038EEE7-A52E-7940-AF9D-3CCCA9190CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5160" yWindow="500" windowWidth="19900" windowHeight="15420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="castile" sheetId="1" r:id="rId1"/>
@@ -19,7 +13,7 @@
     <sheet name="fleming" sheetId="4" r:id="rId4"/>
     <sheet name="leroy" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -59,8 +53,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,21 +117,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -175,7 +161,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -209,7 +195,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -244,10 +229,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -420,14 +404,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,7 +443,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -473,10 +457,10 @@
         <v>46.75</v>
       </c>
       <c r="E2">
-        <v>4.0599999999999996</v>
+        <v>4.06</v>
       </c>
       <c r="F2">
-        <v>87.21</v>
+        <v>87.20999999999999</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -494,7 +478,7 @@
         <v>1472.59</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -529,7 +513,7 @@
         <v>2186.54</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -564,7 +548,7 @@
         <v>3400.98</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -587,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>17319.810000000001</v>
+        <v>17319.81</v>
       </c>
       <c r="I5">
         <v>62781.3</v>
@@ -599,7 +583,7 @@
         <v>4696.67</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -607,7 +591,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>-8.61</v>
+        <v>-8.609999999999999</v>
       </c>
       <c r="D6">
         <v>6.85</v>
@@ -634,7 +618,7 @@
         <v>5204.34</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -669,7 +653,7 @@
         <v>6205.31</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -704,7 +688,7 @@
         <v>6205.31</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -721,7 +705,7 @@
         <v>4.83</v>
       </c>
       <c r="F9">
-        <v>71.989999999999995</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -739,7 +723,7 @@
         <v>7110.53</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -747,7 +731,7 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>-2.2599999999999998</v>
+        <v>-2.26</v>
       </c>
       <c r="D10">
         <v>33.79</v>
@@ -756,7 +740,7 @@
         <v>23.62</v>
       </c>
       <c r="F10">
-        <v>78.739999999999995</v>
+        <v>78.73999999999999</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -774,7 +758,7 @@
         <v>8774.33</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -803,13 +787,13 @@
         <v>128018.26</v>
       </c>
       <c r="J11">
-        <v>839.32</v>
+        <v>839.3200000000001</v>
       </c>
       <c r="K11">
         <v>9613.65</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -820,7 +804,7 @@
         <v>-2.74</v>
       </c>
       <c r="D12">
-        <v>20.059999999999999</v>
+        <v>20.06</v>
       </c>
       <c r="E12">
         <v>4.32</v>
@@ -841,10 +825,10 @@
         <v>706.47</v>
       </c>
       <c r="K12">
-        <v>10320.120000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+        <v>10320.12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -870,7 +854,7 @@
         <v>12200.96</v>
       </c>
       <c r="I13">
-        <v>149662.79999999999</v>
+        <v>149662.8</v>
       </c>
       <c r="J13">
         <v>912.75</v>
@@ -879,7 +863,7 @@
         <v>11232.87</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -887,7 +871,7 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="D14">
         <v>44.7</v>
@@ -896,13 +880,13 @@
         <v>5.08</v>
       </c>
       <c r="F14">
-        <v>71.260000000000005</v>
+        <v>71.26000000000001</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>19283.830000000002</v>
+        <v>19283.83</v>
       </c>
       <c r="I14">
         <v>168946.63</v>
@@ -914,7 +898,7 @@
         <v>12675.49</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -949,7 +933,7 @@
         <v>13770.82</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -984,7 +968,7 @@
         <v>13770.82</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -992,7 +976,7 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>10.039999999999999</v>
+        <v>10.04</v>
       </c>
       <c r="D17">
         <v>28.19</v>
@@ -1001,7 +985,7 @@
         <v>1.27</v>
       </c>
       <c r="F17">
-        <v>67.510000000000005</v>
+        <v>67.51000000000001</v>
       </c>
       <c r="G17">
         <v>11.04</v>
@@ -1013,13 +997,13 @@
         <v>174768.95</v>
       </c>
       <c r="J17">
-        <v>533.67999999999995</v>
+        <v>533.6799999999999</v>
       </c>
       <c r="K17">
         <v>14304.5</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1054,7 +1038,7 @@
         <v>14304.5</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1089,7 +1073,7 @@
         <v>15357.05</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1124,7 +1108,7 @@
         <v>15357.05</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1159,7 +1143,7 @@
         <v>15357.05</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1185,7 +1169,7 @@
         <v>-1848.13</v>
       </c>
       <c r="I22">
-        <v>165482.85999999999</v>
+        <v>165482.86</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1194,7 +1178,7 @@
         <v>15357.05</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1229,7 +1213,7 @@
         <v>15357.05</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1240,7 +1224,7 @@
         <v>12.86</v>
       </c>
       <c r="D24">
-        <v>8.64</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1264,7 +1248,7 @@
         <v>15357.05</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1275,7 +1259,7 @@
         <v>14.88</v>
       </c>
       <c r="D25">
-        <v>33.520000000000003</v>
+        <v>33.52</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1299,7 +1283,7 @@
         <v>16101.68</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1307,7 +1291,7 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>17.899999999999999</v>
+        <v>17.9</v>
       </c>
       <c r="D26">
         <v>2.54</v>
@@ -1325,7 +1309,7 @@
         <v>-9144.73</v>
       </c>
       <c r="I26">
-        <v>142906.89000000001</v>
+        <v>142906.89</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -1334,7 +1318,7 @@
         <v>16101.68</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1342,7 +1326,7 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <v>19.399999999999999</v>
+        <v>19.4</v>
       </c>
       <c r="D27">
         <v>15.99</v>
@@ -1351,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>80.569999999999993</v>
+        <v>80.56999999999999</v>
       </c>
       <c r="G27">
         <v>13.99</v>
@@ -1369,7 +1353,7 @@
         <v>16159.57</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1401,10 +1385,10 @@
         <v>1560.17</v>
       </c>
       <c r="K28">
-        <v>17719.740000000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+        <v>17719.74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1412,7 +1396,7 @@
         <v>28</v>
       </c>
       <c r="C29">
-        <v>19.760000000000002</v>
+        <v>19.76</v>
       </c>
       <c r="D29">
         <v>13.97</v>
@@ -1421,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>71.709999999999994</v>
+        <v>71.70999999999999</v>
       </c>
       <c r="G29">
         <v>23.73</v>
@@ -1436,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>17719.740000000002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+        <v>17719.74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1456,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>75.599999999999994</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="G30">
         <v>20.36</v>
@@ -1471,10 +1455,10 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>17719.740000000002</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+        <v>17719.74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1500,7 +1484,7 @@
         <v>8532.15</v>
       </c>
       <c r="I31">
-        <v>166814.57999999999</v>
+        <v>166814.58</v>
       </c>
       <c r="J31">
         <v>638.29</v>
@@ -1509,7 +1493,7 @@
         <v>18358.03</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1517,7 +1501,7 @@
         <v>31</v>
       </c>
       <c r="C32">
-        <v>17.940000000000001</v>
+        <v>17.94</v>
       </c>
       <c r="D32">
         <v>12.45</v>
@@ -1526,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>70.790000000000006</v>
+        <v>70.79000000000001</v>
       </c>
       <c r="G32">
         <v>22.55</v>
@@ -1535,7 +1519,7 @@
         <v>-3911.53</v>
       </c>
       <c r="I32">
-        <v>162903.04999999999</v>
+        <v>162903.05</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -1544,7 +1528,7 @@
         <v>18358.03</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1552,7 +1536,7 @@
         <v>32</v>
       </c>
       <c r="C33">
-        <v>19.010000000000002</v>
+        <v>19.01</v>
       </c>
       <c r="D33">
         <v>18.79</v>
@@ -1561,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>77.900000000000006</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="G33">
         <v>15.43</v>
@@ -1570,7 +1554,7 @@
         <v>1301.22</v>
       </c>
       <c r="I33">
-        <v>164204.26999999999</v>
+        <v>164204.27</v>
       </c>
       <c r="J33">
         <v>97.34</v>
@@ -1579,7 +1563,7 @@
         <v>18455.37</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1587,7 +1571,7 @@
         <v>33</v>
       </c>
       <c r="C34">
-        <v>18.170000000000002</v>
+        <v>18.17</v>
       </c>
       <c r="D34">
         <v>21.34</v>
@@ -1611,10 +1595,10 @@
         <v>247.44</v>
       </c>
       <c r="K34">
-        <v>18702.810000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+        <v>18702.81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1631,10 +1615,10 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>75.099999999999994</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="G35">
-        <v>18.350000000000001</v>
+        <v>18.35</v>
       </c>
       <c r="H35">
         <v>-2580.94</v>
@@ -1646,10 +1630,10 @@
         <v>0</v>
       </c>
       <c r="K35">
-        <v>18702.810000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+        <v>18702.81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1666,10 +1650,10 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>72.599999999999994</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="G36">
-        <v>20.260000000000002</v>
+        <v>20.26</v>
       </c>
       <c r="H36">
         <v>-6370.85</v>
@@ -1681,10 +1665,10 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <v>18702.810000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+        <v>18702.81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1716,10 +1700,10 @@
         <v>0</v>
       </c>
       <c r="K37">
-        <v>18702.810000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+        <v>18702.81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1745,16 +1729,16 @@
         <v>-3513.3</v>
       </c>
       <c r="I38">
-        <v>154394.64000000001</v>
+        <v>154394.64</v>
       </c>
       <c r="J38">
         <v>0</v>
       </c>
       <c r="K38">
-        <v>18702.810000000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+        <v>18702.81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1771,25 +1755,25 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>71.760000000000005</v>
+        <v>71.76000000000001</v>
       </c>
       <c r="G39">
-        <v>18.649999999999999</v>
+        <v>18.65</v>
       </c>
       <c r="H39">
         <v>-6829.97</v>
       </c>
       <c r="I39">
-        <v>147564.67000000001</v>
+        <v>147564.67</v>
       </c>
       <c r="J39">
         <v>0</v>
       </c>
       <c r="K39">
-        <v>18702.810000000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+        <v>18702.81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1800,19 +1784,19 @@
         <v>13.33</v>
       </c>
       <c r="D40">
-        <v>2.0299999999999998</v>
+        <v>2.03</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>74.290000000000006</v>
+        <v>74.29000000000001</v>
       </c>
       <c r="G40">
         <v>15.37</v>
       </c>
       <c r="H40">
-        <v>-5168.1400000000003</v>
+        <v>-5168.14</v>
       </c>
       <c r="I40">
         <v>142396.53</v>
@@ -1821,10 +1805,10 @@
         <v>0</v>
       </c>
       <c r="K40">
-        <v>18702.810000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+        <v>18702.81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1841,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>71.459999999999994</v>
+        <v>71.45999999999999</v>
       </c>
       <c r="G41">
         <v>22.53</v>
@@ -1856,10 +1840,10 @@
         <v>0</v>
       </c>
       <c r="K41">
-        <v>18702.810000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+        <v>18702.81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1894,7 +1878,7 @@
         <v>19696.53</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1920,7 +1904,7 @@
         <v>11214.68</v>
       </c>
       <c r="I43">
-        <v>163673.82999999999</v>
+        <v>163673.83</v>
       </c>
       <c r="J43">
         <v>838.97</v>
@@ -1929,7 +1913,7 @@
         <v>20535.5</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1940,7 +1924,7 @@
         <v>12.03</v>
       </c>
       <c r="D44">
-        <v>8.3800000000000008</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1964,7 +1948,7 @@
         <v>20535.5</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1987,7 +1971,7 @@
         <v>0.82</v>
       </c>
       <c r="H45">
-        <v>9520.69</v>
+        <v>9520.690000000001</v>
       </c>
       <c r="I45">
         <v>168616.2</v>
@@ -1999,7 +1983,7 @@
         <v>21247.74</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -2016,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>68.930000000000007</v>
+        <v>68.93000000000001</v>
       </c>
       <c r="G46">
         <v>7.95</v>
@@ -2034,7 +2018,7 @@
         <v>21319.13</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -2069,7 +2053,7 @@
         <v>21661.31</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -2086,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>71.760000000000005</v>
+        <v>71.76000000000001</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -2104,7 +2088,7 @@
         <v>22161.79</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -2136,10 +2120,10 @@
         <v>1435.09</v>
       </c>
       <c r="K49">
-        <v>23596.880000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+        <v>23596.88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -2156,13 +2140,13 @@
         <v>11.18</v>
       </c>
       <c r="F50">
-        <v>76.069999999999993</v>
+        <v>76.06999999999999</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50">
-        <v>19479.849999999999</v>
+        <v>19479.85</v>
       </c>
       <c r="I50">
         <v>219497.46</v>
@@ -2174,7 +2158,7 @@
         <v>25054.17</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -2209,7 +2193,7 @@
         <v>25105.56</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -2241,10 +2225,10 @@
         <v>772.84</v>
       </c>
       <c r="K52">
-        <v>25878.400000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+        <v>25878.4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -2273,7 +2257,7 @@
         <v>243600.82</v>
       </c>
       <c r="J53">
-        <v>978.94</v>
+        <v>978.9400000000001</v>
       </c>
       <c r="K53">
         <v>26857.34</v>
@@ -2285,14 +2269,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2324,7 +2308,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2341,7 +2325,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>88.79</v>
+        <v>88.79000000000001</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -2353,13 +2337,13 @@
         <v>7800.56</v>
       </c>
       <c r="J2">
-        <v>583.55999999999995</v>
+        <v>583.5599999999999</v>
       </c>
       <c r="K2">
-        <v>583.55999999999995</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+        <v>583.5599999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2385,7 +2369,7 @@
         <v>11539.27</v>
       </c>
       <c r="I3">
-        <v>19339.830000000002</v>
+        <v>19339.83</v>
       </c>
       <c r="J3">
         <v>863.25</v>
@@ -2394,7 +2378,7 @@
         <v>1446.81</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2411,7 +2395,7 @@
         <v>4.83</v>
       </c>
       <c r="F4">
-        <v>90.9</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -2429,7 +2413,7 @@
         <v>2597.75</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2455,7 +2439,7 @@
         <v>15171.96</v>
       </c>
       <c r="I5">
-        <v>49896.639999999999</v>
+        <v>49896.64</v>
       </c>
       <c r="J5">
         <v>1135.01</v>
@@ -2464,7 +2448,7 @@
         <v>3732.76</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2481,13 +2465,13 @@
         <v>5.33</v>
       </c>
       <c r="F6">
-        <v>76.790000000000006</v>
+        <v>76.79000000000001</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4596.1899999999996</v>
+        <v>4596.19</v>
       </c>
       <c r="I6">
         <v>54492.83</v>
@@ -2499,7 +2483,7 @@
         <v>4076.6</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2516,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>74.739999999999995</v>
+        <v>74.73999999999999</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -2534,7 +2518,7 @@
         <v>4140.18</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2551,7 +2535,7 @@
         <v>0.76</v>
       </c>
       <c r="F8">
-        <v>64.790000000000006</v>
+        <v>64.79000000000001</v>
       </c>
       <c r="G8">
         <v>11.04</v>
@@ -2569,7 +2553,7 @@
         <v>4140.18</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2577,7 +2561,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>-0.55000000000000004</v>
+        <v>-0.55</v>
       </c>
       <c r="D9">
         <v>17.27</v>
@@ -2604,7 +2588,7 @@
         <v>4787.7</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2621,7 +2605,7 @@
         <v>16</v>
       </c>
       <c r="F10">
-        <v>79.540000000000006</v>
+        <v>79.54000000000001</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -2639,7 +2623,7 @@
         <v>5851.01</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2653,7 +2637,7 @@
         <v>7.37</v>
       </c>
       <c r="E11">
-        <v>8.3800000000000008</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="F11">
         <v>81.94</v>
@@ -2674,7 +2658,7 @@
         <v>6346.82</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2709,7 +2693,7 @@
         <v>7881.64</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2717,7 +2701,7 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>2.1800000000000002</v>
+        <v>2.18</v>
       </c>
       <c r="D13">
         <v>5.58</v>
@@ -2726,10 +2710,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>64.260000000000005</v>
+        <v>64.26000000000001</v>
       </c>
       <c r="G13">
-        <v>9.39</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="H13">
         <v>-1604.33</v>
@@ -2744,7 +2728,7 @@
         <v>7881.64</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2773,13 +2757,13 @@
         <v>110753.4</v>
       </c>
       <c r="J14">
-        <v>791.43</v>
+        <v>791.4299999999999</v>
       </c>
       <c r="K14">
         <v>8673.07</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2799,10 +2783,10 @@
         <v>69.53</v>
       </c>
       <c r="G15">
-        <v>5.0599999999999996</v>
+        <v>5.06</v>
       </c>
       <c r="H15">
-        <v>9840.5499999999993</v>
+        <v>9840.549999999999</v>
       </c>
       <c r="I15">
         <v>120593.95</v>
@@ -2814,7 +2798,7 @@
         <v>9409.24</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2849,7 +2833,7 @@
         <v>9409.24</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2866,7 +2850,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>70.540000000000006</v>
+        <v>70.54000000000001</v>
       </c>
       <c r="G17">
         <v>13.32</v>
@@ -2878,13 +2862,13 @@
         <v>106737.32</v>
       </c>
       <c r="J17">
-        <v>76.510000000000005</v>
+        <v>76.51000000000001</v>
       </c>
       <c r="K17">
         <v>9485.75</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2907,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>8658.8700000000008</v>
+        <v>8658.870000000001</v>
       </c>
       <c r="I18">
         <v>115396.19</v>
@@ -2919,7 +2903,7 @@
         <v>10133.52</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2954,7 +2938,7 @@
         <v>11868.15</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2965,7 +2949,7 @@
         <v>12.14</v>
       </c>
       <c r="D20">
-        <v>4.0599999999999996</v>
+        <v>4.06</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -2989,7 +2973,7 @@
         <v>11868.15</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2997,7 +2981,7 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>9.8800000000000008</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -3024,7 +3008,7 @@
         <v>11868.15</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -3041,7 +3025,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>70.989999999999995</v>
+        <v>70.98999999999999</v>
       </c>
       <c r="G22">
         <v>15.56</v>
@@ -3059,7 +3043,7 @@
         <v>11868.15</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -3067,7 +3051,7 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>18.850000000000001</v>
+        <v>18.85</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -3094,7 +3078,7 @@
         <v>11868.15</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -3129,7 +3113,7 @@
         <v>11868.15</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3140,31 +3124,31 @@
         <v>16.75</v>
       </c>
       <c r="D25">
-        <v>67.819999999999993</v>
+        <v>67.81999999999999</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>81.099999999999994</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>28534.720000000001</v>
+        <v>28534.72</v>
       </c>
       <c r="I25">
         <v>127710.61</v>
       </c>
       <c r="J25">
-        <v>2134.6799999999998</v>
+        <v>2134.68</v>
       </c>
       <c r="K25">
         <v>14002.83</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3172,7 +3156,7 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>18.100000000000001</v>
+        <v>18.1</v>
       </c>
       <c r="D26">
         <v>7.87</v>
@@ -3184,7 +3168,7 @@
         <v>77.13</v>
       </c>
       <c r="G26">
-        <v>17.579999999999998</v>
+        <v>17.58</v>
       </c>
       <c r="H26">
         <v>-4086.72</v>
@@ -3199,7 +3183,7 @@
         <v>14002.83</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3210,7 +3194,7 @@
         <v>20.75</v>
       </c>
       <c r="D27">
-        <v>92.96</v>
+        <v>92.95999999999999</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -3231,10 +3215,10 @@
         <v>2925.98</v>
       </c>
       <c r="K27">
-        <v>16928.810000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+        <v>16928.81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3263,13 +3247,13 @@
         <v>178434.35</v>
       </c>
       <c r="J28">
-        <v>1174.3900000000001</v>
+        <v>1174.39</v>
       </c>
       <c r="K28">
         <v>18103.2</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -3304,7 +3288,7 @@
         <v>19607.36</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -3339,7 +3323,7 @@
         <v>20101.77</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3350,7 +3334,7 @@
         <v>21.63</v>
       </c>
       <c r="D31">
-        <v>35.049999999999997</v>
+        <v>35.05</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -3362,7 +3346,7 @@
         <v>10.71</v>
       </c>
       <c r="H31">
-        <v>10241.040000000001</v>
+        <v>10241.04</v>
       </c>
       <c r="I31">
         <v>215390.77</v>
@@ -3371,10 +3355,10 @@
         <v>766.13</v>
       </c>
       <c r="K31">
-        <v>20867.900000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+        <v>20867.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -3385,13 +3369,13 @@
         <v>18.09</v>
       </c>
       <c r="D32">
-        <v>8.1300000000000008</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>78.040000000000006</v>
+        <v>78.04000000000001</v>
       </c>
       <c r="G32">
         <v>16.61</v>
@@ -3406,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <v>20867.900000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+        <v>20867.9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -3426,7 +3410,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>85.29</v>
+        <v>85.29000000000001</v>
       </c>
       <c r="G33">
         <v>2.77</v>
@@ -3444,7 +3428,7 @@
         <v>21995.86</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -3452,7 +3436,7 @@
         <v>33</v>
       </c>
       <c r="C34">
-        <v>19.600000000000001</v>
+        <v>19.6</v>
       </c>
       <c r="D34">
         <v>38.11</v>
@@ -3461,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>84.01</v>
+        <v>84.01000000000001</v>
       </c>
       <c r="G34">
         <v>5.55</v>
@@ -3479,7 +3463,7 @@
         <v>23020.86</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -3487,7 +3471,7 @@
         <v>34</v>
       </c>
       <c r="C35">
-        <v>18.100000000000001</v>
+        <v>18.1</v>
       </c>
       <c r="D35">
         <v>10.16</v>
@@ -3514,7 +3498,7 @@
         <v>23044.45</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -3522,7 +3506,7 @@
         <v>35</v>
       </c>
       <c r="C36">
-        <v>16.190000000000001</v>
+        <v>16.19</v>
       </c>
       <c r="D36">
         <v>22.6</v>
@@ -3531,13 +3515,13 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>85.74</v>
+        <v>85.73999999999999</v>
       </c>
       <c r="G36">
         <v>2.95</v>
       </c>
       <c r="H36">
-        <v>8268.81</v>
+        <v>8268.809999999999</v>
       </c>
       <c r="I36">
         <v>249184.51</v>
@@ -3546,10 +3530,10 @@
         <v>618.59</v>
       </c>
       <c r="K36">
-        <v>23663.040000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+        <v>23663.04</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -3581,10 +3565,10 @@
         <v>0</v>
       </c>
       <c r="K37">
-        <v>23663.040000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+        <v>23663.04</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3619,7 +3603,7 @@
         <v>24398.63</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -3654,7 +3638,7 @@
         <v>24398.63</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3689,7 +3673,7 @@
         <v>24440.02</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3706,10 +3690,10 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>82.71</v>
+        <v>82.70999999999999</v>
       </c>
       <c r="G41">
-        <v>10.220000000000001</v>
+        <v>10.22</v>
       </c>
       <c r="H41">
         <v>724.41</v>
@@ -3724,7 +3708,7 @@
         <v>24494.21</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3741,13 +3725,13 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>77.489999999999995</v>
+        <v>77.48999999999999</v>
       </c>
       <c r="G42">
         <v>4.26</v>
       </c>
       <c r="H42">
-        <v>2265.8200000000002</v>
+        <v>2265.82</v>
       </c>
       <c r="I42">
         <v>255694.1</v>
@@ -3759,7 +3743,7 @@
         <v>24663.72</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -3794,7 +3778,7 @@
         <v>26054.32</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -3817,10 +3801,10 @@
         <v>16.39</v>
       </c>
       <c r="H44">
-        <v>-4545.1400000000003</v>
+        <v>-4545.14</v>
       </c>
       <c r="I44">
-        <v>269737.34000000003</v>
+        <v>269737.34</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -3829,7 +3813,7 @@
         <v>26054.32</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -3846,7 +3830,7 @@
         <v>0.25</v>
       </c>
       <c r="F45">
-        <v>76.569999999999993</v>
+        <v>76.56999999999999</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -3864,7 +3848,7 @@
         <v>27149.49</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -3881,7 +3865,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>74.430000000000007</v>
+        <v>74.43000000000001</v>
       </c>
       <c r="G46">
         <v>4.59</v>
@@ -3899,7 +3883,7 @@
         <v>27165.01</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -3934,7 +3918,7 @@
         <v>27660.75</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -3960,7 +3944,7 @@
         <v>3954.97</v>
       </c>
       <c r="I48">
-        <v>295165.78000000003</v>
+        <v>295165.78</v>
       </c>
       <c r="J48">
         <v>295.87</v>
@@ -3969,7 +3953,7 @@
         <v>27956.62</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -4001,10 +3985,10 @@
         <v>247.78</v>
       </c>
       <c r="K49">
-        <v>28204.400000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+        <v>28204.4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -4039,7 +4023,7 @@
         <v>29299.63</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -4074,7 +4058,7 @@
         <v>30155.14</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -4088,16 +4072,16 @@
         <v>46.23</v>
       </c>
       <c r="E52">
-        <v>2.0299999999999998</v>
+        <v>2.03</v>
       </c>
       <c r="F52">
-        <v>83.54</v>
+        <v>83.54000000000001</v>
       </c>
       <c r="G52">
         <v>0</v>
       </c>
       <c r="H52">
-        <v>20305.849999999999</v>
+        <v>20305.85</v>
       </c>
       <c r="I52">
         <v>344859.62</v>
@@ -4109,7 +4093,7 @@
         <v>31674.22</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -4150,14 +4134,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4189,7 +4173,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4206,7 +4190,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>88.79</v>
+        <v>88.79000000000001</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -4224,7 +4208,7 @@
         <v>494.8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -4247,10 +4231,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>9784.2000000000007</v>
+        <v>9784.200000000001</v>
       </c>
       <c r="I3">
-        <v>16398.330000000002</v>
+        <v>16398.33</v>
       </c>
       <c r="J3">
         <v>731.96</v>
@@ -4259,7 +4243,7 @@
         <v>1226.76</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -4276,7 +4260,7 @@
         <v>4.83</v>
       </c>
       <c r="F4">
-        <v>90.9</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -4294,7 +4278,7 @@
         <v>2202.65</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -4329,7 +4313,7 @@
         <v>3165.03</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -4346,7 +4330,7 @@
         <v>5.33</v>
       </c>
       <c r="F6">
-        <v>76.790000000000006</v>
+        <v>76.79000000000001</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -4358,13 +4342,13 @@
         <v>46204.73</v>
       </c>
       <c r="J6">
-        <v>291.54000000000002</v>
+        <v>291.54</v>
       </c>
       <c r="K6">
         <v>3456.57</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -4381,7 +4365,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>74.739999999999995</v>
+        <v>74.73999999999999</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -4399,7 +4383,7 @@
         <v>3510.48</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -4416,7 +4400,7 @@
         <v>0.76</v>
       </c>
       <c r="F8">
-        <v>64.790000000000006</v>
+        <v>64.79000000000001</v>
       </c>
       <c r="G8">
         <v>11.04</v>
@@ -4434,7 +4418,7 @@
         <v>3510.48</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -4442,7 +4426,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>-0.55000000000000004</v>
+        <v>-0.55</v>
       </c>
       <c r="D9">
         <v>17.27</v>
@@ -4469,7 +4453,7 @@
         <v>4059.51</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -4486,7 +4470,7 @@
         <v>16</v>
       </c>
       <c r="F10">
-        <v>79.540000000000006</v>
+        <v>79.54000000000001</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -4501,10 +4485,10 @@
         <v>901.59</v>
       </c>
       <c r="K10">
-        <v>4961.1000000000004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+        <v>4961.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -4518,7 +4502,7 @@
         <v>7.37</v>
       </c>
       <c r="E11">
-        <v>8.3800000000000008</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="F11">
         <v>81.94</v>
@@ -4530,7 +4514,7 @@
         <v>5619.51</v>
       </c>
       <c r="I11">
-        <v>68902.740000000005</v>
+        <v>68902.74000000001</v>
       </c>
       <c r="J11">
         <v>420.4</v>
@@ -4539,7 +4523,7 @@
         <v>5381.5</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -4565,16 +4549,16 @@
         <v>17395.8</v>
       </c>
       <c r="I12">
-        <v>86298.54</v>
+        <v>86298.53999999999</v>
       </c>
       <c r="J12">
-        <v>1301.3800000000001</v>
+        <v>1301.38</v>
       </c>
       <c r="K12">
         <v>6682.88</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -4582,7 +4566,7 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>2.1800000000000002</v>
+        <v>2.18</v>
       </c>
       <c r="D13">
         <v>5.58</v>
@@ -4591,10 +4575,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>64.260000000000005</v>
+        <v>64.26000000000001</v>
       </c>
       <c r="G13">
-        <v>9.39</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="H13">
         <v>-1360.32</v>
@@ -4609,7 +4593,7 @@
         <v>6682.88</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -4635,7 +4619,7 @@
         <v>8970.1</v>
       </c>
       <c r="I14">
-        <v>93908.32</v>
+        <v>93908.32000000001</v>
       </c>
       <c r="J14">
         <v>671.05</v>
@@ -4644,7 +4628,7 @@
         <v>7353.93</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4664,7 +4648,7 @@
         <v>69.53</v>
       </c>
       <c r="G15">
-        <v>5.0599999999999996</v>
+        <v>5.06</v>
       </c>
       <c r="H15">
         <v>8343.85</v>
@@ -4673,13 +4657,13 @@
         <v>102252.17</v>
       </c>
       <c r="J15">
-        <v>624.20000000000005</v>
+        <v>624.2</v>
       </c>
       <c r="K15">
         <v>7978.13</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4714,7 +4698,7 @@
         <v>7978.13</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -4731,7 +4715,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>70.540000000000006</v>
+        <v>70.54000000000001</v>
       </c>
       <c r="G17">
         <v>13.32</v>
@@ -4740,7 +4724,7 @@
         <v>867.21</v>
       </c>
       <c r="I17">
-        <v>90503.07</v>
+        <v>90503.07000000001</v>
       </c>
       <c r="J17">
         <v>64.88</v>
@@ -4749,7 +4733,7 @@
         <v>8043.01</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4784,7 +4768,7 @@
         <v>8592.26</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4819,7 +4803,7 @@
         <v>10063.06</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4830,7 +4814,7 @@
         <v>12.14</v>
       </c>
       <c r="D20">
-        <v>4.0599999999999996</v>
+        <v>4.06</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -4854,7 +4838,7 @@
         <v>10063.06</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -4862,7 +4846,7 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>9.8800000000000008</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -4877,7 +4861,7 @@
         <v>23.7</v>
       </c>
       <c r="H21">
-        <v>-8454.0400000000009</v>
+        <v>-8454.040000000001</v>
       </c>
       <c r="I21">
         <v>103306.59</v>
@@ -4889,7 +4873,7 @@
         <v>10063.06</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -4906,7 +4890,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>70.989999999999995</v>
+        <v>70.98999999999999</v>
       </c>
       <c r="G22">
         <v>15.56</v>
@@ -4915,7 +4899,7 @@
         <v>-3830.05</v>
       </c>
       <c r="I22">
-        <v>99476.54</v>
+        <v>99476.53999999999</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -4924,7 +4908,7 @@
         <v>10063.06</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4932,7 +4916,7 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>18.850000000000001</v>
+        <v>18.85</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -4959,7 +4943,7 @@
         <v>10063.06</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -4985,7 +4969,7 @@
         <v>-1409.92</v>
       </c>
       <c r="I24">
-        <v>84091.71</v>
+        <v>84091.71000000001</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -4994,7 +4978,7 @@
         <v>10063.06</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -5005,13 +4989,13 @@
         <v>16.75</v>
       </c>
       <c r="D25">
-        <v>67.819999999999993</v>
+        <v>67.81999999999999</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>81.099999999999994</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -5029,7 +5013,7 @@
         <v>11873.07</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -5037,7 +5021,7 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>18.100000000000001</v>
+        <v>18.1</v>
       </c>
       <c r="D26">
         <v>7.87</v>
@@ -5049,7 +5033,7 @@
         <v>77.13</v>
       </c>
       <c r="G26">
-        <v>17.579999999999998</v>
+        <v>17.58</v>
       </c>
       <c r="H26">
         <v>-3465.15</v>
@@ -5064,7 +5048,7 @@
         <v>11873.07</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -5075,7 +5059,7 @@
         <v>20.75</v>
       </c>
       <c r="D27">
-        <v>92.96</v>
+        <v>92.95999999999999</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -5087,19 +5071,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>33163.410000000003</v>
+        <v>33163.41</v>
       </c>
       <c r="I27">
-        <v>137984.70000000001</v>
+        <v>137984.7</v>
       </c>
       <c r="J27">
-        <v>2480.9499999999998</v>
+        <v>2480.95</v>
       </c>
       <c r="K27">
         <v>14354.02</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -5134,7 +5118,7 @@
         <v>15349.79</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -5163,13 +5147,13 @@
         <v>168343.72</v>
       </c>
       <c r="J29">
-        <v>1275.3900000000001</v>
+        <v>1275.39</v>
       </c>
       <c r="K29">
         <v>16625.18</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -5201,10 +5185,10 @@
         <v>419.22</v>
       </c>
       <c r="K30">
-        <v>17044.400000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+        <v>17044.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -5215,7 +5199,7 @@
         <v>21.63</v>
       </c>
       <c r="D31">
-        <v>35.049999999999997</v>
+        <v>35.05</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -5236,10 +5220,10 @@
         <v>649.61</v>
       </c>
       <c r="K31">
-        <v>17694.009999999998</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+        <v>17694.01</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -5250,13 +5234,13 @@
         <v>18.09</v>
       </c>
       <c r="D32">
-        <v>8.1300000000000008</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>78.040000000000006</v>
+        <v>78.04000000000001</v>
       </c>
       <c r="G32">
         <v>16.61</v>
@@ -5271,10 +5255,10 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <v>17694.009999999998</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+        <v>17694.01</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -5291,7 +5275,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>85.29</v>
+        <v>85.29000000000001</v>
       </c>
       <c r="G33">
         <v>2.77</v>
@@ -5309,7 +5293,7 @@
         <v>18650.41</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -5317,7 +5301,7 @@
         <v>33</v>
       </c>
       <c r="C34">
-        <v>19.600000000000001</v>
+        <v>19.6</v>
       </c>
       <c r="D34">
         <v>38.11</v>
@@ -5326,7 +5310,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>84.01</v>
+        <v>84.01000000000001</v>
       </c>
       <c r="G34">
         <v>5.55</v>
@@ -5341,10 +5325,10 @@
         <v>869.1</v>
       </c>
       <c r="K34">
-        <v>19519.509999999998</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+        <v>19519.51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -5352,7 +5336,7 @@
         <v>34</v>
       </c>
       <c r="C35">
-        <v>18.100000000000001</v>
+        <v>18.1</v>
       </c>
       <c r="D35">
         <v>10.16</v>
@@ -5376,10 +5360,10 @@
         <v>20</v>
       </c>
       <c r="K35">
-        <v>19539.509999999998</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+        <v>19539.51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -5387,7 +5371,7 @@
         <v>35</v>
       </c>
       <c r="C36">
-        <v>16.190000000000001</v>
+        <v>16.19</v>
       </c>
       <c r="D36">
         <v>22.6</v>
@@ -5396,7 +5380,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>85.74</v>
+        <v>85.73999999999999</v>
       </c>
       <c r="G36">
         <v>2.95</v>
@@ -5414,7 +5398,7 @@
         <v>20064.02</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -5449,7 +5433,7 @@
         <v>20064.02</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -5484,7 +5468,7 @@
         <v>20687.73</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -5507,7 +5491,7 @@
         <v>3.42</v>
       </c>
       <c r="H39">
-        <v>-313.33999999999997</v>
+        <v>-313.34</v>
       </c>
       <c r="I39">
         <v>213799.77</v>
@@ -5519,7 +5503,7 @@
         <v>20687.73</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -5548,13 +5532,13 @@
         <v>214268.85</v>
       </c>
       <c r="J40">
-        <v>35.090000000000003</v>
+        <v>35.09</v>
       </c>
       <c r="K40">
         <v>20722.82</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -5571,10 +5555,10 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>82.71</v>
+        <v>82.70999999999999</v>
       </c>
       <c r="G41">
-        <v>10.220000000000001</v>
+        <v>10.22</v>
       </c>
       <c r="H41">
         <v>614.23</v>
@@ -5589,7 +5573,7 @@
         <v>20768.77</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -5606,7 +5590,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>77.489999999999995</v>
+        <v>77.48999999999999</v>
       </c>
       <c r="G42">
         <v>4.26</v>
@@ -5621,10 +5605,10 @@
         <v>143.72</v>
       </c>
       <c r="K42">
-        <v>20912.490000000002</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+        <v>20912.49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -5653,13 +5637,13 @@
         <v>232565.46</v>
       </c>
       <c r="J43">
-        <v>1179.0899999999999</v>
+        <v>1179.09</v>
       </c>
       <c r="K43">
         <v>22091.58</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -5694,7 +5678,7 @@
         <v>22091.58</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -5711,7 +5695,7 @@
         <v>0.25</v>
       </c>
       <c r="F45">
-        <v>76.569999999999993</v>
+        <v>76.56999999999999</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -5729,7 +5713,7 @@
         <v>23020.18</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -5746,7 +5730,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>74.430000000000007</v>
+        <v>74.43000000000001</v>
       </c>
       <c r="G46">
         <v>4.59</v>
@@ -5764,7 +5748,7 @@
         <v>23033.34</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -5799,7 +5783,7 @@
         <v>23453.68</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -5834,7 +5818,7 @@
         <v>23704.55</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -5866,10 +5850,10 @@
         <v>210.09</v>
       </c>
       <c r="K49">
-        <v>23914.639999999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+        <v>23914.64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -5895,7 +5879,7 @@
         <v>12413.45</v>
       </c>
       <c r="I50">
-        <v>265494.28000000003</v>
+        <v>265494.28</v>
       </c>
       <c r="J50">
         <v>928.65</v>
@@ -5904,7 +5888,7 @@
         <v>24843.29</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -5927,10 +5911,10 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>9696.44</v>
+        <v>9696.440000000001</v>
       </c>
       <c r="I51">
-        <v>275190.71999999997</v>
+        <v>275190.72</v>
       </c>
       <c r="J51">
         <v>725.39</v>
@@ -5939,7 +5923,7 @@
         <v>25568.68</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -5953,10 +5937,10 @@
         <v>46.23</v>
       </c>
       <c r="E52">
-        <v>2.0299999999999998</v>
+        <v>2.03</v>
       </c>
       <c r="F52">
-        <v>83.54</v>
+        <v>83.54000000000001</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -5965,16 +5949,16 @@
         <v>17217.43</v>
       </c>
       <c r="I52">
-        <v>292408.15000000002</v>
+        <v>292408.15</v>
       </c>
       <c r="J52">
         <v>1288.04</v>
       </c>
       <c r="K52">
-        <v>26856.720000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+        <v>26856.72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -5997,7 +5981,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>10237.280000000001</v>
+        <v>10237.28</v>
       </c>
       <c r="I53">
         <v>302645.43</v>
@@ -6015,14 +5999,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6054,7 +6038,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6062,7 +6046,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>4.4800000000000004</v>
+        <v>4.48</v>
       </c>
       <c r="D2">
         <v>31.74</v>
@@ -6089,7 +6073,7 @@
         <v>1015.67</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -6118,13 +6102,13 @@
         <v>29331.32</v>
       </c>
       <c r="J3">
-        <v>1178.6099999999999</v>
+        <v>1178.61</v>
       </c>
       <c r="K3">
-        <v>2194.2800000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2194.28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -6141,7 +6125,7 @@
         <v>0.51</v>
       </c>
       <c r="F4">
-        <v>85.99</v>
+        <v>85.98999999999999</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -6153,13 +6137,13 @@
         <v>44866.16</v>
       </c>
       <c r="J4">
-        <v>1162.1600000000001</v>
+        <v>1162.16</v>
       </c>
       <c r="K4">
         <v>3356.44</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -6176,7 +6160,7 @@
         <v>14.48</v>
       </c>
       <c r="F5">
-        <v>77.209999999999994</v>
+        <v>77.20999999999999</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -6191,10 +6175,10 @@
         <v>1015.92</v>
       </c>
       <c r="K5">
-        <v>4372.3599999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+        <v>4372.36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -6205,13 +6189,13 @@
         <v>-5.63</v>
       </c>
       <c r="D6">
-        <v>8.89</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="E6">
         <v>23.62</v>
       </c>
       <c r="F6">
-        <v>68.569999999999993</v>
+        <v>68.56999999999999</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -6220,16 +6204,16 @@
         <v>13906.84</v>
       </c>
       <c r="I6">
-        <v>72353.039999999994</v>
+        <v>72353.03999999999</v>
       </c>
       <c r="J6">
-        <v>1040.3699999999999</v>
+        <v>1040.37</v>
       </c>
       <c r="K6">
         <v>5412.73</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -6264,7 +6248,7 @@
         <v>6014.32</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -6290,7 +6274,7 @@
         <v>-4127.79</v>
       </c>
       <c r="I8">
-        <v>76266.850000000006</v>
+        <v>76266.85000000001</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -6299,7 +6283,7 @@
         <v>6014.32</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -6334,7 +6318,7 @@
         <v>6810.98</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -6369,7 +6353,7 @@
         <v>8639.82</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -6401,10 +6385,10 @@
         <v>812.79</v>
       </c>
       <c r="K11">
-        <v>9452.61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+        <v>9452.610000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -6412,7 +6396,7 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>-0.28000000000000003</v>
+        <v>-0.28</v>
       </c>
       <c r="D12">
         <v>62.23</v>
@@ -6439,7 +6423,7 @@
         <v>12606.23</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -6474,7 +6458,7 @@
         <v>12606.23</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -6494,7 +6478,7 @@
         <v>64.91</v>
       </c>
       <c r="G14">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="H14">
         <v>19286.02</v>
@@ -6509,7 +6493,7 @@
         <v>14049.02</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -6520,7 +6504,7 @@
         <v>6.86</v>
       </c>
       <c r="D15">
-        <v>64.260000000000005</v>
+        <v>64.26000000000001</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -6544,7 +6528,7 @@
         <v>15906.53</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -6567,7 +6551,7 @@
         <v>46.91</v>
       </c>
       <c r="H16">
-        <v>-20066.759999999998</v>
+        <v>-20066.76</v>
       </c>
       <c r="I16">
         <v>184866.24</v>
@@ -6579,7 +6563,7 @@
         <v>15906.53</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -6614,7 +6598,7 @@
         <v>15906.53</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -6649,7 +6633,7 @@
         <v>16346.52</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -6681,10 +6665,10 @@
         <v>1641.58</v>
       </c>
       <c r="K19">
-        <v>17988.099999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+        <v>17988.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -6716,10 +6700,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>17988.099999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+        <v>17988.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -6739,7 +6723,7 @@
         <v>49.73</v>
       </c>
       <c r="G21">
-        <v>37.229999999999997</v>
+        <v>37.23</v>
       </c>
       <c r="H21">
         <v>-15922.83</v>
@@ -6751,10 +6735,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>17988.099999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+        <v>17988.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -6765,7 +6749,7 @@
         <v>12.74</v>
       </c>
       <c r="D22">
-        <v>8.6300000000000008</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -6786,10 +6770,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>17988.099999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+        <v>17988.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -6797,7 +6781,7 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>19.760000000000002</v>
+        <v>19.76</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -6821,10 +6805,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>17988.099999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+        <v>17988.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -6850,16 +6834,16 @@
         <v>-6250.08</v>
       </c>
       <c r="I24">
-        <v>144487.64000000001</v>
+        <v>144487.64</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>17988.099999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+        <v>17988.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -6891,10 +6875,10 @@
         <v>2814.66</v>
       </c>
       <c r="K25">
-        <v>20802.759999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+        <v>20802.76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -6926,10 +6910,10 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>20802.759999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+        <v>20802.76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -6961,10 +6945,10 @@
         <v>2013</v>
       </c>
       <c r="K27">
-        <v>22815.759999999998</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+        <v>22815.76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -6996,10 +6980,10 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>22815.759999999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+        <v>22815.76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -7031,10 +7015,10 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>22815.759999999998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+        <v>22815.76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -7066,10 +7050,10 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>22815.759999999998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+        <v>22815.76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -7086,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>68.930000000000007</v>
+        <v>68.93000000000001</v>
       </c>
       <c r="G31">
         <v>26.34</v>
@@ -7104,7 +7088,7 @@
         <v>22940.02</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -7139,7 +7123,7 @@
         <v>22940.02</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -7147,10 +7131,10 @@
         <v>32</v>
       </c>
       <c r="C33">
-        <v>19.329999999999998</v>
+        <v>19.33</v>
       </c>
       <c r="D33">
-        <v>83.57</v>
+        <v>83.56999999999999</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -7174,7 +7158,7 @@
         <v>25438.61</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -7194,7 +7178,7 @@
         <v>73.03</v>
       </c>
       <c r="G34">
-        <v>18.760000000000002</v>
+        <v>18.76</v>
       </c>
       <c r="H34">
         <v>5450.45</v>
@@ -7209,7 +7193,7 @@
         <v>25846.36</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -7232,7 +7216,7 @@
         <v>24.75</v>
       </c>
       <c r="H35">
-        <v>-4287.2299999999996</v>
+        <v>-4287.23</v>
       </c>
       <c r="I35">
         <v>217367.87</v>
@@ -7244,7 +7228,7 @@
         <v>25846.36</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -7261,7 +7245,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>71.430000000000007</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="G36">
         <v>20.68</v>
@@ -7279,7 +7263,7 @@
         <v>25846.36</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -7296,7 +7280,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>70.209999999999994</v>
+        <v>70.20999999999999</v>
       </c>
       <c r="G37">
         <v>26.99</v>
@@ -7314,7 +7298,7 @@
         <v>25846.36</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -7322,7 +7306,7 @@
         <v>37</v>
       </c>
       <c r="C38">
-        <v>16.670000000000002</v>
+        <v>16.67</v>
       </c>
       <c r="D38">
         <v>26.93</v>
@@ -7349,7 +7333,7 @@
         <v>26249.46</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -7360,16 +7344,16 @@
         <v>14.56</v>
       </c>
       <c r="D39">
-        <v>8.1300000000000008</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>70.569999999999993</v>
+        <v>70.56999999999999</v>
       </c>
       <c r="G39">
-        <v>19.239999999999998</v>
+        <v>19.24</v>
       </c>
       <c r="H39">
         <v>-4752.68</v>
@@ -7384,7 +7368,7 @@
         <v>26249.46</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -7401,7 +7385,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>69.290000000000006</v>
+        <v>69.29000000000001</v>
       </c>
       <c r="G40">
         <v>20.34</v>
@@ -7419,7 +7403,7 @@
         <v>26249.46</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -7454,7 +7438,7 @@
         <v>26249.46</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -7489,7 +7473,7 @@
         <v>26249.46</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -7506,7 +7490,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>74.040000000000006</v>
+        <v>74.04000000000001</v>
       </c>
       <c r="G43">
         <v>5.63</v>
@@ -7524,7 +7508,7 @@
         <v>26914.7</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -7559,7 +7543,7 @@
         <v>26955.27</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -7576,7 +7560,7 @@
         <v>1.27</v>
       </c>
       <c r="F45">
-        <v>67.569999999999993</v>
+        <v>67.56999999999999</v>
       </c>
       <c r="G45">
         <v>5.18</v>
@@ -7594,7 +7578,7 @@
         <v>27756.94</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -7605,13 +7589,13 @@
         <v>6.31</v>
       </c>
       <c r="D46">
-        <v>16.510000000000002</v>
+        <v>16.51</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="F46">
-        <v>64.489999999999995</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="G46">
         <v>12.11</v>
@@ -7629,7 +7613,7 @@
         <v>27897.69</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -7652,7 +7636,7 @@
         <v>5.27</v>
       </c>
       <c r="H47">
-        <v>9156.31</v>
+        <v>9156.309999999999</v>
       </c>
       <c r="I47">
         <v>235274.26</v>
@@ -7664,7 +7648,7 @@
         <v>28582.67</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -7699,7 +7683,7 @@
         <v>29015.77</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -7716,7 +7700,7 @@
         <v>3.3</v>
       </c>
       <c r="F49">
-        <v>65.959999999999994</v>
+        <v>65.95999999999999</v>
       </c>
       <c r="G49">
         <v>2.7</v>
@@ -7728,13 +7712,13 @@
         <v>248272.75</v>
       </c>
       <c r="J49">
-        <v>539.30999999999995</v>
+        <v>539.3099999999999</v>
       </c>
       <c r="K49">
         <v>29555.08</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -7760,16 +7744,16 @@
         <v>13906.84</v>
       </c>
       <c r="I50">
-        <v>262179.59000000003</v>
+        <v>262179.59</v>
       </c>
       <c r="J50">
-        <v>1040.3699999999999</v>
+        <v>1040.37</v>
       </c>
       <c r="K50">
         <v>30595.45</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -7792,19 +7776,19 @@
         <v>6.72</v>
       </c>
       <c r="H51">
-        <v>8534.6200000000008</v>
+        <v>8534.620000000001</v>
       </c>
       <c r="I51">
-        <v>270714.21000000002</v>
+        <v>270714.21</v>
       </c>
       <c r="J51">
         <v>638.47</v>
       </c>
       <c r="K51">
-        <v>31233.919999999998</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+        <v>31233.92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -7830,16 +7814,16 @@
         <v>20753.32</v>
       </c>
       <c r="I52">
-        <v>291467.53000000003</v>
+        <v>291467.53</v>
       </c>
       <c r="J52">
         <v>1552.56</v>
       </c>
       <c r="K52">
-        <v>32786.480000000003</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+        <v>32786.48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -7880,20 +7864,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="8" max="8" width="32" customWidth="1"/>
-    <col min="9" max="9" width="23.83203125" customWidth="1"/>
-    <col min="10" max="10" width="22.33203125" customWidth="1"/>
-    <col min="11" max="11" width="20.1640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7925,7 +7903,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -7942,7 +7920,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>87.21</v>
+        <v>87.20999999999999</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -7954,13 +7932,13 @@
         <v>11396.42</v>
       </c>
       <c r="J2">
-        <v>852.57</v>
+        <v>852.5700000000001</v>
       </c>
       <c r="K2">
-        <v>852.57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+        <v>852.5700000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -7995,7 +7973,7 @@
         <v>1585.28</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -8006,7 +7984,7 @@
         <v>-0.83</v>
       </c>
       <c r="D4">
-        <v>19.809999999999999</v>
+        <v>19.81</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -8030,7 +8008,7 @@
         <v>2134.88</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -8056,7 +8034,7 @@
         <v>11114.57</v>
       </c>
       <c r="I5">
-        <v>39651.980000000003</v>
+        <v>39651.98</v>
       </c>
       <c r="J5">
         <v>831.48</v>
@@ -8065,7 +8043,7 @@
         <v>2966.36</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -8100,7 +8078,7 @@
         <v>3241.3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -8135,7 +8113,7 @@
         <v>4016.46</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -8155,7 +8133,7 @@
         <v>65.8</v>
       </c>
       <c r="G8">
-        <v>9.6300000000000008</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="H8">
         <v>-2252.91</v>
@@ -8170,7 +8148,7 @@
         <v>4016.46</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -8187,7 +8165,7 @@
         <v>5.08</v>
       </c>
       <c r="F9">
-        <v>71.989999999999995</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -8196,16 +8174,16 @@
         <v>11114.57</v>
       </c>
       <c r="I9">
-        <v>62550.559999999998</v>
+        <v>62550.56</v>
       </c>
       <c r="J9">
         <v>831.48</v>
       </c>
       <c r="K9">
-        <v>4847.9399999999996</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+        <v>4847.94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -8222,7 +8200,7 @@
         <v>20.32</v>
       </c>
       <c r="F10">
-        <v>78.739999999999995</v>
+        <v>78.73999999999999</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -8231,16 +8209,16 @@
         <v>14411.48</v>
       </c>
       <c r="I10">
-        <v>76962.039999999994</v>
+        <v>76962.03999999999</v>
       </c>
       <c r="J10">
-        <v>1078.1199999999999</v>
+        <v>1078.12</v>
       </c>
       <c r="K10">
         <v>5926.06</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -8266,7 +8244,7 @@
         <v>5559.14</v>
       </c>
       <c r="I11">
-        <v>82521.179999999993</v>
+        <v>82521.17999999999</v>
       </c>
       <c r="J11">
         <v>415.88</v>
@@ -8275,7 +8253,7 @@
         <v>6341.94</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -8301,7 +8279,7 @@
         <v>5370</v>
       </c>
       <c r="I12">
-        <v>87891.18</v>
+        <v>87891.17999999999</v>
       </c>
       <c r="J12">
         <v>401.73</v>
@@ -8310,7 +8288,7 @@
         <v>6743.67</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -8330,7 +8308,7 @@
         <v>65.09</v>
       </c>
       <c r="G13">
-        <v>9.8000000000000007</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H13">
         <v>-1563.04</v>
@@ -8345,7 +8323,7 @@
         <v>6743.67</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -8362,7 +8340,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>71.260000000000005</v>
+        <v>71.26000000000001</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -8371,7 +8349,7 @@
         <v>11871.12</v>
       </c>
       <c r="I14">
-        <v>98199.26</v>
+        <v>98199.25999999999</v>
       </c>
       <c r="J14">
         <v>888.08</v>
@@ -8380,7 +8358,7 @@
         <v>7631.75</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -8409,13 +8387,13 @@
         <v>113667.15</v>
       </c>
       <c r="J15">
-        <v>1157.1500000000001</v>
+        <v>1157.15</v>
       </c>
       <c r="K15">
         <v>8788.9</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -8438,7 +8416,7 @@
         <v>44.34</v>
       </c>
       <c r="H16">
-        <v>-16444.810000000001</v>
+        <v>-16444.81</v>
       </c>
       <c r="I16">
         <v>97222.34</v>
@@ -8450,7 +8428,7 @@
         <v>8788.9</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -8467,13 +8445,13 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>67.510000000000005</v>
+        <v>67.51000000000001</v>
       </c>
       <c r="G17">
         <v>14.24</v>
       </c>
       <c r="H17">
-        <v>4512.8900000000003</v>
+        <v>4512.89</v>
       </c>
       <c r="I17">
         <v>101735.23</v>
@@ -8485,7 +8463,7 @@
         <v>9126.51</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -8517,10 +8495,10 @@
         <v>358.05</v>
       </c>
       <c r="K18">
-        <v>9484.56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+        <v>9484.559999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -8543,7 +8521,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>8477.7800000000007</v>
+        <v>8477.780000000001</v>
       </c>
       <c r="I19">
         <v>114999.08</v>
@@ -8552,10 +8530,10 @@
         <v>634.22</v>
       </c>
       <c r="K19">
-        <v>10118.780000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+        <v>10118.78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -8587,10 +8565,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>10118.780000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+        <v>10118.78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -8616,16 +8594,16 @@
         <v>-10838.25</v>
       </c>
       <c r="I21">
-        <v>91923.68</v>
+        <v>91923.67999999999</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>10118.780000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+        <v>10118.78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -8657,10 +8635,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>10118.780000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+        <v>10118.78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -8686,16 +8664,16 @@
         <v>-15752.95</v>
       </c>
       <c r="I23">
-        <v>65702.080000000002</v>
+        <v>65702.08</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>10118.780000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+        <v>10118.78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -8727,10 +8705,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>10118.780000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+        <v>10118.78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -8738,7 +8716,7 @@
         <v>24</v>
       </c>
       <c r="C25">
-        <v>17.100000000000001</v>
+        <v>17.1</v>
       </c>
       <c r="D25">
         <v>14.48</v>
@@ -8762,10 +8740,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10118.780000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+        <v>10118.78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -8773,7 +8751,7 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>20.079999999999998</v>
+        <v>20.08</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -8797,10 +8775,10 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>10118.780000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+        <v>10118.78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -8811,13 +8789,13 @@
         <v>20.91</v>
       </c>
       <c r="D27">
-        <v>16.260000000000002</v>
+        <v>16.26</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>80.569999999999993</v>
+        <v>80.56999999999999</v>
       </c>
       <c r="G27">
         <v>15.96</v>
@@ -8832,10 +8810,10 @@
         <v>8.26</v>
       </c>
       <c r="K27">
-        <v>10127.040000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+        <v>10127.04</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -8870,7 +8848,7 @@
         <v>10316.99</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -8887,7 +8865,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>71.709999999999994</v>
+        <v>71.70999999999999</v>
       </c>
       <c r="G29">
         <v>27.36</v>
@@ -8905,7 +8883,7 @@
         <v>10316.99</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -8922,7 +8900,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>75.599999999999994</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="G30">
         <v>14.79</v>
@@ -8940,7 +8918,7 @@
         <v>11217.59</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -8975,7 +8953,7 @@
         <v>12365.57</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -8992,7 +8970,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>70.790000000000006</v>
+        <v>70.79000000000001</v>
       </c>
       <c r="G32">
         <v>25.95</v>
@@ -9010,7 +8988,7 @@
         <v>12365.57</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -9027,7 +9005,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>77.900000000000006</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="G33">
         <v>14.35</v>
@@ -9036,7 +9014,7 @@
         <v>5795.08</v>
       </c>
       <c r="I33">
-        <v>66322.460000000006</v>
+        <v>66322.46000000001</v>
       </c>
       <c r="J33">
         <v>433.53</v>
@@ -9045,7 +9023,7 @@
         <v>12799.1</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -9053,7 +9031,7 @@
         <v>33</v>
       </c>
       <c r="C34">
-        <v>20.239999999999998</v>
+        <v>20.24</v>
       </c>
       <c r="D34">
         <v>7.62</v>
@@ -9068,7 +9046,7 @@
         <v>18.88</v>
       </c>
       <c r="H34">
-        <v>-4175.6000000000004</v>
+        <v>-4175.6</v>
       </c>
       <c r="I34">
         <v>62146.86</v>
@@ -9080,7 +9058,7 @@
         <v>12799.1</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -9097,7 +9075,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>75.099999999999994</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="G35">
         <v>21.85</v>
@@ -9115,7 +9093,7 @@
         <v>12799.1</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -9132,13 +9110,13 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>72.599999999999994</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="G36">
         <v>23.53</v>
       </c>
       <c r="H36">
-        <v>-8724.4500000000007</v>
+        <v>-8724.450000000001</v>
       </c>
       <c r="I36">
         <v>48050.9</v>
@@ -9150,7 +9128,7 @@
         <v>12799.1</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -9185,7 +9163,7 @@
         <v>13259.82</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -9208,7 +9186,7 @@
         <v>14.73</v>
       </c>
       <c r="H38">
-        <v>-2162.4899999999998</v>
+        <v>-2162.49</v>
       </c>
       <c r="I38">
         <v>52046.98</v>
@@ -9220,7 +9198,7 @@
         <v>13259.82</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -9237,13 +9215,13 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>71.760000000000005</v>
+        <v>71.76000000000001</v>
       </c>
       <c r="G39">
-        <v>17.989999999999998</v>
+        <v>17.99</v>
       </c>
       <c r="H39">
-        <v>-4601.1400000000003</v>
+        <v>-4601.14</v>
       </c>
       <c r="I39">
         <v>47445.84</v>
@@ -9255,7 +9233,7 @@
         <v>13259.82</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -9272,16 +9250,16 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>74.290000000000006</v>
+        <v>74.29000000000001</v>
       </c>
       <c r="G40">
-        <v>17.940000000000001</v>
+        <v>17.94</v>
       </c>
       <c r="H40">
         <v>-5802.25</v>
       </c>
       <c r="I40">
-        <v>41643.589999999997</v>
+        <v>41643.59</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -9290,7 +9268,7 @@
         <v>13259.82</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -9298,7 +9276,7 @@
         <v>40</v>
       </c>
       <c r="C41">
-        <v>19.440000000000001</v>
+        <v>19.44</v>
       </c>
       <c r="D41">
         <v>5.84</v>
@@ -9307,7 +9285,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>71.459999999999994</v>
+        <v>71.45999999999999</v>
       </c>
       <c r="G41">
         <v>25.5</v>
@@ -9325,7 +9303,7 @@
         <v>13259.82</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -9336,7 +9314,7 @@
         <v>9.6</v>
       </c>
       <c r="D42">
-        <v>16.510000000000002</v>
+        <v>16.51</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -9348,10 +9326,10 @@
         <v>5.32</v>
       </c>
       <c r="H42">
-        <v>4150.2700000000004</v>
+        <v>4150.27</v>
       </c>
       <c r="I42">
-        <v>38501.449999999997</v>
+        <v>38501.45</v>
       </c>
       <c r="J42">
         <v>310.48</v>
@@ -9360,7 +9338,7 @@
         <v>13570.3</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -9395,7 +9373,7 @@
         <v>13927.51</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -9406,7 +9384,7 @@
         <v>14.45</v>
       </c>
       <c r="D44">
-        <v>8.1199999999999992</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -9430,7 +9408,7 @@
         <v>13927.51</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -9456,16 +9434,16 @@
         <v>7023.42</v>
       </c>
       <c r="I45">
-        <v>44585.599999999999</v>
+        <v>44585.6</v>
       </c>
       <c r="J45">
-        <v>525.41999999999996</v>
+        <v>525.42</v>
       </c>
       <c r="K45">
         <v>14452.93</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -9482,13 +9460,13 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>68.930000000000007</v>
+        <v>68.93000000000001</v>
       </c>
       <c r="G46">
         <v>12.13</v>
       </c>
       <c r="H46">
-        <v>-4119.0200000000004</v>
+        <v>-4119.02</v>
       </c>
       <c r="I46">
         <v>40466.58</v>
@@ -9500,7 +9478,7 @@
         <v>14452.93</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -9526,7 +9504,7 @@
         <v>178.04</v>
       </c>
       <c r="I47">
-        <v>40644.620000000003</v>
+        <v>40644.62</v>
       </c>
       <c r="J47">
         <v>13.32</v>
@@ -9535,7 +9513,7 @@
         <v>14466.25</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -9552,7 +9530,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>71.760000000000005</v>
+        <v>71.76000000000001</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -9561,7 +9539,7 @@
         <v>9516.18</v>
       </c>
       <c r="I48">
-        <v>50160.800000000003</v>
+        <v>50160.8</v>
       </c>
       <c r="J48">
         <v>711.91</v>
@@ -9570,7 +9548,7 @@
         <v>15178.16</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -9605,7 +9583,7 @@
         <v>15522.15</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -9622,7 +9600,7 @@
         <v>5.08</v>
       </c>
       <c r="F50">
-        <v>76.069999999999993</v>
+        <v>76.06999999999999</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -9640,7 +9618,7 @@
         <v>16163.31</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -9648,7 +9626,7 @@
         <v>50</v>
       </c>
       <c r="C51">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="D51">
         <v>10.16</v>
@@ -9675,7 +9653,7 @@
         <v>16198.21</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -9701,16 +9679,16 @@
         <v>3296.91</v>
       </c>
       <c r="I52">
-        <v>67092.899999999994</v>
+        <v>67092.89999999999</v>
       </c>
       <c r="J52">
         <v>246.64</v>
       </c>
       <c r="K52">
-        <v>16444.849999999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+        <v>16444.85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -9742,7 +9720,7 @@
         <v>831.48</v>
       </c>
       <c r="K53">
-        <v>17276.330000000002</v>
+        <v>17276.33</v>
       </c>
     </row>
   </sheetData>
